--- a/benchmark/MCOneBulk/output_mean_median_std.xlsx
+++ b/benchmark/MCOneBulk/output_mean_median_std.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="run_no_02As1" sheetId="1" r:id="rId1"/>
-    <sheet name="run_no_01As1" sheetId="2" r:id="rId2"/>
-    <sheet name="run_no_04As1" sheetId="3" r:id="rId3"/>
-    <sheet name="run_no_03As1" sheetId="4" r:id="rId4"/>
-    <sheet name="run_no_05As1" sheetId="5" r:id="rId5"/>
-    <sheet name="run_no_06As1" sheetId="6" r:id="rId6"/>
-    <sheet name="run_no_15As1" sheetId="7" r:id="rId7"/>
-    <sheet name="run_no_17As1" sheetId="8" r:id="rId8"/>
-    <sheet name="run_no_14As1" sheetId="9" r:id="rId9"/>
+    <sheet name="02As1" sheetId="1" r:id="rId1"/>
+    <sheet name="01As1" sheetId="2" r:id="rId2"/>
+    <sheet name="04As1" sheetId="3" r:id="rId3"/>
+    <sheet name="03As1" sheetId="4" r:id="rId4"/>
+    <sheet name="05As1" sheetId="5" r:id="rId5"/>
+    <sheet name="06As1" sheetId="6" r:id="rId6"/>
+    <sheet name="15As1" sheetId="7" r:id="rId7"/>
+    <sheet name="17As1" sheetId="8" r:id="rId8"/>
+    <sheet name="14As1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -449,10 +449,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9809633908512058</v>
+        <v>0.9798899907339318</v>
       </c>
       <c r="C2">
-        <v>0.0209414247167419</v>
+        <v>0.02153113898391442</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -461,16 +461,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.554912327134763E-05</v>
+        <v>1.609602134855739E-05</v>
       </c>
       <c r="G2">
-        <v>0.0006750291368192535</v>
+        <v>0.0006214869498101935</v>
       </c>
       <c r="H2">
-        <v>0.7757223840563146</v>
+        <v>0.8976833099934275</v>
       </c>
       <c r="I2">
-        <v>0.6899518746319376</v>
+        <v>0.8749322508885455</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -478,10 +478,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9811517109621274</v>
+        <v>0.9799929012328832</v>
       </c>
       <c r="C3">
-        <v>0.0207274219550806</v>
+        <v>0.02206475988849353</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -493,13 +493,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0003788030494742434</v>
+        <v>0.0003915283491840607</v>
       </c>
       <c r="H3">
-        <v>0.7480089974639221</v>
+        <v>0.8747712542560515</v>
       </c>
       <c r="I3">
-        <v>0.5595189337601085</v>
+        <v>0.765224761757397</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -507,10 +507,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.008003049639761398</v>
+        <v>0.009131669110240744</v>
       </c>
       <c r="C4">
-        <v>0.006884453952731464</v>
+        <v>0.006476685975371176</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -519,16 +519,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0002454577927847527</v>
+        <v>0.0001042579102384836</v>
       </c>
       <c r="G4">
-        <v>0.0007925560783628885</v>
+        <v>0.0007185552072997323</v>
       </c>
       <c r="H4">
-        <v>0.2984922676458623</v>
+        <v>0.2641871961199606</v>
       </c>
       <c r="I4">
-        <v>0.5260079137417191</v>
+        <v>0.4912577122720154</v>
       </c>
     </row>
   </sheetData>
@@ -575,10 +575,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9508491243064597</v>
+        <v>0.9502001456596101</v>
       </c>
       <c r="C2">
-        <v>0.04756919883903604</v>
+        <v>0.04754367189995588</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -590,13 +590,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.00204777839218929</v>
+        <v>0.002000387651920156</v>
       </c>
       <c r="H2">
-        <v>1.030825168556014</v>
+        <v>0.9863020562376154</v>
       </c>
       <c r="I2">
-        <v>1.098257771320148</v>
+        <v>1.006214227963057</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -604,10 +604,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9507964512229177</v>
+        <v>0.9496954248716458</v>
       </c>
       <c r="C3">
-        <v>0.04763428549757805</v>
+        <v>0.04771241449781451</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -619,13 +619,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002021144745399875</v>
+        <v>0.002125612393828717</v>
       </c>
       <c r="H3">
-        <v>1.033196760894724</v>
+        <v>0.9845017926603847</v>
       </c>
       <c r="I3">
-        <v>1.067498618128176</v>
+        <v>0.969251712312306</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -633,10 +633,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0104916734405876</v>
+        <v>0.01028942432269696</v>
       </c>
       <c r="C4">
-        <v>0.004018489966415601</v>
+        <v>0.003841569500100158</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -648,13 +648,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0009309674180369059</v>
+        <v>0.0009867550308754519</v>
       </c>
       <c r="H4">
-        <v>0.1897825528473722</v>
+        <v>0.1837391701598192</v>
       </c>
       <c r="I4">
-        <v>0.3942786544982858</v>
+        <v>0.364312941526301</v>
       </c>
     </row>
   </sheetData>
@@ -701,28 +701,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9210215355727523</v>
+        <v>0.9226063806227636</v>
       </c>
       <c r="C2">
-        <v>0.07474024333582004</v>
+        <v>0.0740075964197934</v>
       </c>
       <c r="D2">
-        <v>0.0006905269784758286</v>
+        <v>0.0008905951387100702</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0003498359025878863</v>
+        <v>0.0005130925330992127</v>
       </c>
       <c r="G2">
-        <v>0.0021970470339595</v>
+        <v>0.002167918104887253</v>
       </c>
       <c r="H2">
-        <v>0.611543512764069</v>
+        <v>0.5914898951432891</v>
       </c>
       <c r="I2">
-        <v>0.4475740475090979</v>
+        <v>0.4004688474563243</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -730,10 +730,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.921168339657083</v>
+        <v>0.9226623517831525</v>
       </c>
       <c r="C3">
-        <v>0.07461716069723875</v>
+        <v>0.07418517013596926</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -745,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001989722150521204</v>
+        <v>0.002137835858518582</v>
       </c>
       <c r="H3">
-        <v>0.5779160803606203</v>
+        <v>0.5738603460378129</v>
       </c>
       <c r="I3">
-        <v>0.3339917833065742</v>
+        <v>0.3293207580376375</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -759,28 +759,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.005941736684960014</v>
+        <v>0.005613290598507299</v>
       </c>
       <c r="C4">
-        <v>0.003488806916316661</v>
+        <v>0.003260855597877733</v>
       </c>
       <c r="D4">
-        <v>0.001357826508125044</v>
+        <v>0.001700129491080505</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.001204469277296727</v>
+        <v>0.00126155382268423</v>
       </c>
       <c r="G4">
-        <v>0.001195092432304573</v>
+        <v>0.001141597715711942</v>
       </c>
       <c r="H4">
-        <v>0.2726387692353797</v>
+        <v>0.2260967688592452</v>
       </c>
       <c r="I4">
-        <v>0.4039035649920627</v>
+        <v>0.2847578218630386</v>
       </c>
     </row>
   </sheetData>
@@ -827,28 +827,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8919433815201194</v>
+        <v>0.8921692977279098</v>
       </c>
       <c r="C2">
-        <v>0.09885163563672107</v>
+        <v>0.0976057181496723</v>
       </c>
       <c r="D2">
-        <v>0.0002375854577656997</v>
+        <v>0.0003335696138305586</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5.989959098009491E-05</v>
+        <v>0.0002094234707919305</v>
       </c>
       <c r="G2">
-        <v>0.007143272994545844</v>
+        <v>0.006935482102891982</v>
       </c>
       <c r="H2">
-        <v>0.622247877965981</v>
+        <v>0.6307613102107397</v>
       </c>
       <c r="I2">
-        <v>0.4201537654007672</v>
+        <v>0.4309618506192791</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8920627448793681</v>
+        <v>0.8923201521182822</v>
       </c>
       <c r="C3">
-        <v>0.09937007380027313</v>
+        <v>0.09736306420030864</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.007196195080188754</v>
+        <v>0.006912685963603876</v>
       </c>
       <c r="H3">
-        <v>0.6020454765612483</v>
+        <v>0.610567384327233</v>
       </c>
       <c r="I3">
-        <v>0.3624588228778123</v>
+        <v>0.3727927111716598</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -885,28 +885,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.005290150866463646</v>
+        <v>0.005451123264398402</v>
       </c>
       <c r="C4">
-        <v>0.004605778761762586</v>
+        <v>0.004610513590008767</v>
       </c>
       <c r="D4">
-        <v>0.0006516197948399574</v>
+        <v>0.000891280742942957</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0003054301875712244</v>
+        <v>0.0006624927968823611</v>
       </c>
       <c r="G4">
-        <v>0.0007638377036655306</v>
+        <v>0.0006304417686973042</v>
       </c>
       <c r="H4">
-        <v>0.1824672207108449</v>
+        <v>0.1828561839274662</v>
       </c>
       <c r="I4">
-        <v>0.2411212890598829</v>
+        <v>0.2565143270178858</v>
       </c>
     </row>
   </sheetData>
@@ -953,10 +953,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8775545662827799</v>
+        <v>0.8777241847510051</v>
       </c>
       <c r="C2">
-        <v>0.1240936594140003</v>
+        <v>0.1232117484602415</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.796298719290976E-05</v>
+        <v>1.318401561100019E-05</v>
       </c>
       <c r="G2">
-        <v>0.00158560517619308</v>
+        <v>0.001645525986853472</v>
       </c>
       <c r="H2">
-        <v>0.6921564348044325</v>
+        <v>0.7066497824294522</v>
       </c>
       <c r="I2">
-        <v>0.5362360996549941</v>
+        <v>0.5404169548661918</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -982,10 +982,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8779294725123173</v>
+        <v>0.8779744208626861</v>
       </c>
       <c r="C3">
-        <v>0.1241981977471214</v>
+        <v>0.1233863822240512</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -997,13 +997,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001419119714703323</v>
+        <v>0.001616893470948635</v>
       </c>
       <c r="H3">
-        <v>0.7138088178285826</v>
+        <v>0.6991906086744673</v>
       </c>
       <c r="I3">
-        <v>0.5095235250319433</v>
+        <v>0.4888704170255399</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1011,10 +1011,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.007085909745984905</v>
+        <v>0.006346236477782826</v>
       </c>
       <c r="C4">
-        <v>0.005147266567094249</v>
+        <v>0.00505043725803282</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0002265045299942202</v>
+        <v>9.276773018424971E-05</v>
       </c>
       <c r="G4">
-        <v>0.001074645145372141</v>
+        <v>0.000949633051523478</v>
       </c>
       <c r="H4">
-        <v>0.2402767121420412</v>
+        <v>0.2036610371155696</v>
       </c>
       <c r="I4">
-        <v>0.3427443541360615</v>
+        <v>0.2913692573096227</v>
       </c>
     </row>
   </sheetData>
@@ -1079,28 +1079,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8081985483371484</v>
+        <v>0.8071702847121991</v>
       </c>
       <c r="C2">
-        <v>0.1604723051656291</v>
+        <v>0.1586851390056201</v>
       </c>
       <c r="D2">
-        <v>0.001145769245229906</v>
+        <v>0.001280380655464657</v>
       </c>
       <c r="E2">
-        <v>0.02763682728011764</v>
+        <v>0.02950988177342199</v>
       </c>
       <c r="F2">
-        <v>0.0002686299805303724</v>
+        <v>0.0002051070486097058</v>
       </c>
       <c r="G2">
-        <v>0.001860569160536993</v>
+        <v>0.002101074943576661</v>
       </c>
       <c r="H2">
-        <v>0.5363857178641053</v>
+        <v>0.4811580864666364</v>
       </c>
       <c r="I2">
-        <v>0.3236860613905839</v>
+        <v>0.2627451198825397</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1108,28 +1108,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8083829817779655</v>
+        <v>0.8077148662015767</v>
       </c>
       <c r="C3">
-        <v>0.1597143839488623</v>
+        <v>0.1594855341963085</v>
       </c>
       <c r="D3">
-        <v>0.0003614393002262495</v>
+        <v>0.0009193761638276359</v>
       </c>
       <c r="E3">
-        <v>0.02847802562886025</v>
+        <v>0.02945298333273018</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001928966803409061</v>
+        <v>0.002027627650456768</v>
       </c>
       <c r="H3">
-        <v>0.517877328856658</v>
+        <v>0.4709952895310272</v>
       </c>
       <c r="I3">
-        <v>0.2682029311349703</v>
+        <v>0.2218548020870819</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1137,28 +1137,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01388111374991146</v>
+        <v>0.01272647582887284</v>
       </c>
       <c r="C4">
-        <v>0.00681843161955128</v>
+        <v>0.007500326836275707</v>
       </c>
       <c r="D4">
-        <v>0.001499025878643485</v>
+        <v>0.001464121390996701</v>
       </c>
       <c r="E4">
-        <v>0.01363086029881497</v>
+        <v>0.01421416916457012</v>
       </c>
       <c r="F4">
-        <v>0.00091189607616854</v>
+        <v>0.0007423284672833191</v>
       </c>
       <c r="G4">
-        <v>0.0007512668279998698</v>
+        <v>0.0008111120973094652</v>
       </c>
       <c r="H4">
-        <v>0.190630063932056</v>
+        <v>0.1776161327595813</v>
       </c>
       <c r="I4">
-        <v>0.2180963536615849</v>
+        <v>0.1874831844666198</v>
       </c>
     </row>
   </sheetData>
@@ -1205,28 +1205,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.7226062872771002</v>
+        <v>0.7232292078474113</v>
       </c>
       <c r="C2">
-        <v>0.1676633426059426</v>
+        <v>0.1675286119384344</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1064664284443182</v>
+        <v>0.1062282271893372</v>
       </c>
       <c r="F2">
-        <v>5.288512171920496E-05</v>
+        <v>0.0001202932321158335</v>
       </c>
       <c r="G2">
-        <v>0.001479548254988513</v>
+        <v>0.001563394103973134</v>
       </c>
       <c r="H2">
-        <v>0.6183320670631819</v>
+        <v>0.5739593785972937</v>
       </c>
       <c r="I2">
-        <v>0.4157767424553147</v>
+        <v>0.3674288326165827</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1234,28 +1234,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.7220528460036949</v>
+        <v>0.7240062556644203</v>
       </c>
       <c r="C3">
-        <v>0.168248660615864</v>
+        <v>0.1678863198611271</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1071452637107164</v>
+        <v>0.1042706190082356</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001467108393960584</v>
+        <v>0.001580727477606238</v>
       </c>
       <c r="H3">
-        <v>0.6106005516912116</v>
+        <v>0.5506160708518197</v>
       </c>
       <c r="I3">
-        <v>0.3728352721932756</v>
+        <v>0.3032249567163624</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1263,28 +1263,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01475725784688038</v>
+        <v>0.01497437173124801</v>
       </c>
       <c r="C4">
-        <v>0.00602769966450585</v>
+        <v>0.006579991302777647</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0157974616229224</v>
+        <v>0.01489259396690413</v>
       </c>
       <c r="F4">
-        <v>0.0002715734942071859</v>
+        <v>0.0005315148922368961</v>
       </c>
       <c r="G4">
-        <v>0.0009253269996438546</v>
+        <v>0.0008953496216458579</v>
       </c>
       <c r="H4">
-        <v>0.1837933548020197</v>
+        <v>0.1959165570080538</v>
       </c>
       <c r="I4">
-        <v>0.2316580183434537</v>
+        <v>0.2473440654769964</v>
       </c>
     </row>
   </sheetData>
@@ -1331,28 +1331,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.7097483410230921</v>
+        <v>0.7106069956356046</v>
       </c>
       <c r="C2">
-        <v>0.1733011418285907</v>
+        <v>0.1720215662851398</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1090511678935646</v>
+        <v>0.1092724202117681</v>
       </c>
       <c r="F2">
-        <v>0.001088729832410741</v>
+        <v>0.001267938108624024</v>
       </c>
       <c r="G2">
-        <v>0.001224492995439497</v>
+        <v>0.001143173296203496</v>
       </c>
       <c r="H2">
-        <v>0.5255303313001463</v>
+        <v>0.566333759053366</v>
       </c>
       <c r="I2">
-        <v>0.3074313158542077</v>
+        <v>0.3649227598456179</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.7097411473259486</v>
+        <v>0.7114475682513748</v>
       </c>
       <c r="C3">
-        <v>0.1735613600410127</v>
+        <v>0.1717450951888246</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1081131556950423</v>
+        <v>0.1081899368470046</v>
       </c>
       <c r="F3">
-        <v>0.00038382782453838</v>
+        <v>0.0005641748068123936</v>
       </c>
       <c r="G3">
-        <v>0.001101332976025167</v>
+        <v>0.001031388599640221</v>
       </c>
       <c r="H3">
-        <v>0.5147394706374857</v>
+        <v>0.5658774945027429</v>
       </c>
       <c r="I3">
-        <v>0.2649583417650258</v>
+        <v>0.3202255721883171</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01363414003743036</v>
+        <v>0.01352611469215804</v>
       </c>
       <c r="C4">
-        <v>0.005634542495372474</v>
+        <v>0.004975930104577844</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01466354786642573</v>
+        <v>0.012931054644498</v>
       </c>
       <c r="F4">
-        <v>0.001555224160835241</v>
+        <v>0.001647032752719308</v>
       </c>
       <c r="G4">
-        <v>0.0009917258868771038</v>
+        <v>0.001001530604008272</v>
       </c>
       <c r="H4">
-        <v>0.1776649517734232</v>
+        <v>0.2112704074228765</v>
       </c>
       <c r="I4">
-        <v>0.2020825674360244</v>
+        <v>0.2501448180877729</v>
       </c>
     </row>
   </sheetData>
@@ -1457,28 +1457,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.6666802785744754</v>
+        <v>0.6678079259082581</v>
       </c>
       <c r="C2">
-        <v>0.166310199989269</v>
+        <v>0.1667494209156459</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1635968955477589</v>
+        <v>0.162401965527319</v>
       </c>
       <c r="F2">
-        <v>0.0004202824950484883</v>
+        <v>0.0005610981384928198</v>
       </c>
       <c r="G2">
-        <v>0.001955234184595776</v>
+        <v>0.002014463605904397</v>
       </c>
       <c r="H2">
-        <v>0.4073722676920932</v>
+        <v>0.3910013719546632</v>
       </c>
       <c r="I2">
-        <v>0.1912899789641216</v>
+        <v>0.1722668396186005</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1486,28 +1486,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.6675221440669408</v>
+        <v>0.6667619420497803</v>
       </c>
       <c r="C3">
-        <v>0.1665541678599324</v>
+        <v>0.1661115818251713</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1627430659877971</v>
+        <v>0.1624178325034633</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001927544790890017</v>
+        <v>0.002027842913778518</v>
       </c>
       <c r="H3">
-        <v>0.3986933601018134</v>
+        <v>0.388230625508734</v>
       </c>
       <c r="I3">
-        <v>0.1589676541561857</v>
+        <v>0.1507243203229722</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1515,28 +1515,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01265663560874077</v>
+        <v>0.01145337624421507</v>
       </c>
       <c r="C4">
-        <v>0.005305370698227971</v>
+        <v>0.006268512294325648</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01320363259434714</v>
+        <v>0.01198228961591472</v>
       </c>
       <c r="F4">
-        <v>0.0008946383588944439</v>
+        <v>0.001058393617325825</v>
       </c>
       <c r="G4">
-        <v>0.0005458691037973674</v>
+        <v>0.0004678455041210978</v>
       </c>
       <c r="H4">
-        <v>0.1599804738070187</v>
+        <v>0.1399305987727514</v>
       </c>
       <c r="I4">
-        <v>0.1476477147919781</v>
+        <v>0.1189639819136277</v>
       </c>
     </row>
   </sheetData>
